--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H2">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I2">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J2">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.734917</v>
+        <v>6.166976333333333</v>
       </c>
       <c r="N2">
-        <v>8.204751</v>
+        <v>18.500929</v>
       </c>
       <c r="O2">
-        <v>0.1754197244717108</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="P2">
-        <v>0.1754197244717108</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="Q2">
-        <v>1.469040610492</v>
+        <v>2.312387946875667</v>
       </c>
       <c r="R2">
-        <v>13.221365494428</v>
+        <v>20.811491521881</v>
       </c>
       <c r="S2">
-        <v>0.01454993586146021</v>
+        <v>0.009734664161052311</v>
       </c>
       <c r="T2">
-        <v>0.01454993586146021</v>
+        <v>0.009734664161052309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H3">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I3">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J3">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.817179333333333</v>
+        <v>12.76679433333333</v>
       </c>
       <c r="N3">
-        <v>20.451538</v>
+        <v>38.300383</v>
       </c>
       <c r="O3">
-        <v>0.4372592368717496</v>
+        <v>0.4526229200471234</v>
       </c>
       <c r="P3">
-        <v>0.4372592368717496</v>
+        <v>0.4526229200471233</v>
       </c>
       <c r="Q3">
-        <v>3.661797886251555</v>
+        <v>4.787075503609666</v>
       </c>
       <c r="R3">
-        <v>32.956180976264</v>
+        <v>43.083679532487</v>
       </c>
       <c r="S3">
-        <v>0.03626783630218836</v>
+        <v>0.02015257535146895</v>
       </c>
       <c r="T3">
-        <v>0.03626783630218837</v>
+        <v>0.02015257535146895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,78 +664,78 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H4">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I4">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J4">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.038607666666667</v>
+        <v>0.004996666666666667</v>
       </c>
       <c r="N4">
-        <v>18.115823</v>
+        <v>0.01499</v>
       </c>
       <c r="O4">
-        <v>0.3873210386565396</v>
+        <v>0.0001771475123762178</v>
       </c>
       <c r="P4">
-        <v>0.3873210386565396</v>
+        <v>0.0001771475123762177</v>
       </c>
       <c r="Q4">
-        <v>3.243593825027111</v>
+        <v>0.001873565123333333</v>
       </c>
       <c r="R4">
-        <v>29.192344425244</v>
+        <v>0.01686208611</v>
       </c>
       <c r="S4">
-        <v>0.03212578452747265</v>
+        <v>7.887312889756733E-06</v>
       </c>
       <c r="T4">
-        <v>0.03212578452747265</v>
+        <v>7.887312889756731E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1337676666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H5">
-        <v>0.401303</v>
+        <v>1.124889</v>
       </c>
       <c r="I5">
-        <v>0.02065590155490473</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J5">
-        <v>0.02065590155490473</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.734917</v>
+        <v>9.267480666666666</v>
       </c>
       <c r="N5">
-        <v>8.204751</v>
+        <v>27.802442</v>
       </c>
       <c r="O5">
-        <v>0.1754197244717108</v>
+        <v>0.3285612700656488</v>
       </c>
       <c r="P5">
-        <v>0.1754197244717108</v>
+        <v>0.3285612700656488</v>
       </c>
       <c r="Q5">
-        <v>0.365843465617</v>
+        <v>3.474962353215333</v>
       </c>
       <c r="R5">
-        <v>3.292591190553</v>
+        <v>31.274661178938</v>
       </c>
       <c r="S5">
-        <v>0.003623452559476171</v>
+        <v>0.01462885651456397</v>
       </c>
       <c r="T5">
-        <v>0.003623452559476171</v>
+        <v>0.01462885651456397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,10 +794,10 @@
         <v>0.401303</v>
       </c>
       <c r="I6">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J6">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.817179333333333</v>
+        <v>6.166976333333333</v>
       </c>
       <c r="N6">
-        <v>20.451538</v>
+        <v>18.500929</v>
       </c>
       <c r="O6">
-        <v>0.4372592368717496</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="P6">
-        <v>0.4372592368717496</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="Q6">
-        <v>0.9119181726682222</v>
+        <v>0.8249420344985556</v>
       </c>
       <c r="R6">
-        <v>8.207263554014</v>
+        <v>7.424478310487</v>
       </c>
       <c r="S6">
-        <v>0.009031983750795627</v>
+        <v>0.003472831480993036</v>
       </c>
       <c r="T6">
-        <v>0.009031983750795627</v>
+        <v>0.003472831480993036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +856,10 @@
         <v>0.401303</v>
       </c>
       <c r="I7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,122 +868,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.038607666666667</v>
+        <v>12.76679433333333</v>
       </c>
       <c r="N7">
-        <v>18.115823</v>
+        <v>38.300383</v>
       </c>
       <c r="O7">
-        <v>0.3873210386565396</v>
+        <v>0.4526229200471234</v>
       </c>
       <c r="P7">
-        <v>0.3873210386565396</v>
+        <v>0.4526229200471233</v>
       </c>
       <c r="Q7">
-        <v>0.8077704574854445</v>
+        <v>1.707784288783222</v>
       </c>
       <c r="R7">
-        <v>7.269934117369</v>
+        <v>15.370058599049</v>
       </c>
       <c r="S7">
-        <v>0.008000465244632932</v>
+        <v>0.00718941064075704</v>
       </c>
       <c r="T7">
-        <v>0.008000465244632932</v>
+        <v>0.007189410640757039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.280335</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H8">
-        <v>6.841005</v>
+        <v>0.401303</v>
       </c>
       <c r="I8">
-        <v>0.3521207810971038</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J8">
-        <v>0.3521207810971038</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.734917</v>
+        <v>0.004996666666666667</v>
       </c>
       <c r="N8">
-        <v>8.204751</v>
+        <v>0.01499</v>
       </c>
       <c r="O8">
-        <v>0.1754197244717108</v>
+        <v>0.0001771475123762178</v>
       </c>
       <c r="P8">
-        <v>0.1754197244717108</v>
+        <v>0.0001771475123762177</v>
       </c>
       <c r="Q8">
-        <v>6.236526957194999</v>
+        <v>0.0006683924411111111</v>
       </c>
       <c r="R8">
-        <v>56.128742614755</v>
+        <v>0.006015531970000001</v>
       </c>
       <c r="S8">
-        <v>0.06176893040081755</v>
+        <v>2.813790804779891E-06</v>
       </c>
       <c r="T8">
-        <v>0.06176893040081755</v>
+        <v>2.81379080477989E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.280335</v>
+        <v>0.1337676666666667</v>
       </c>
       <c r="H9">
-        <v>6.841005</v>
+        <v>0.401303</v>
       </c>
       <c r="I9">
-        <v>0.3521207810971038</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J9">
-        <v>0.3521207810971038</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.817179333333333</v>
+        <v>9.267480666666666</v>
       </c>
       <c r="N9">
-        <v>20.451538</v>
+        <v>27.802442</v>
       </c>
       <c r="O9">
-        <v>0.4372592368717496</v>
+        <v>0.3285612700656488</v>
       </c>
       <c r="P9">
-        <v>0.4372592368717496</v>
+        <v>0.3285612700656488</v>
       </c>
       <c r="Q9">
-        <v>15.54545263507667</v>
+        <v>1.239689264658444</v>
       </c>
       <c r="R9">
-        <v>139.90907371569</v>
+        <v>11.157203381926</v>
       </c>
       <c r="S9">
-        <v>0.153968064029204</v>
+        <v>0.005218829596399348</v>
       </c>
       <c r="T9">
-        <v>0.153968064029204</v>
+        <v>0.005218829596399348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H10">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I10">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J10">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,42 +1054,42 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.038607666666667</v>
+        <v>6.166976333333333</v>
       </c>
       <c r="N10">
-        <v>18.115823</v>
+        <v>18.500929</v>
       </c>
       <c r="O10">
-        <v>0.3873210386565396</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="P10">
-        <v>0.3873210386565396</v>
+        <v>0.2186386623748516</v>
       </c>
       <c r="Q10">
-        <v>13.77004841356833</v>
+        <v>25.10015281585422</v>
       </c>
       <c r="R10">
-        <v>123.930435722115</v>
+        <v>225.901375342688</v>
       </c>
       <c r="S10">
-        <v>0.1363837866670823</v>
+        <v>0.1056663343984167</v>
       </c>
       <c r="T10">
-        <v>0.1363837866670823</v>
+        <v>0.1056663343984166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.524757</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H11">
-        <v>10.574271</v>
+        <v>12.210272</v>
       </c>
       <c r="I11">
-        <v>0.5442797606568702</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J11">
-        <v>0.5442797606568702</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,43 +1116,43 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.734917</v>
+        <v>12.76679433333333</v>
       </c>
       <c r="N11">
-        <v>8.204751</v>
+        <v>38.300383</v>
       </c>
       <c r="O11">
-        <v>0.1754197244717108</v>
+        <v>0.4526229200471234</v>
       </c>
       <c r="P11">
-        <v>0.1754197244717108</v>
+        <v>0.4526229200471233</v>
       </c>
       <c r="Q11">
-        <v>9.639917840168998</v>
+        <v>51.96201045935288</v>
       </c>
       <c r="R11">
-        <v>86.75926056152099</v>
+        <v>467.6580941341759</v>
       </c>
       <c r="S11">
-        <v>0.0954774056499569</v>
+        <v>0.2187490735014135</v>
       </c>
       <c r="T11">
-        <v>0.0954774056499569</v>
+        <v>0.2187490735014135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1157,108 +1160,604 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.524757</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H12">
-        <v>10.574271</v>
+        <v>12.210272</v>
       </c>
       <c r="I12">
-        <v>0.5442797606568702</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J12">
-        <v>0.5442797606568702</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>6.817179333333333</v>
+        <v>0.004996666666666667</v>
       </c>
       <c r="N12">
-        <v>20.451538</v>
+        <v>0.01499</v>
       </c>
       <c r="O12">
-        <v>0.4372592368717496</v>
+        <v>0.0001771475123762178</v>
       </c>
       <c r="P12">
-        <v>0.4372592368717496</v>
+        <v>0.0001771475123762177</v>
       </c>
       <c r="Q12">
-        <v>24.028900575422</v>
+        <v>0.02033688636444444</v>
       </c>
       <c r="R12">
-        <v>216.260105178798</v>
+        <v>0.18303197728</v>
       </c>
       <c r="S12">
-        <v>0.2379913527895616</v>
+        <v>8.561399012083479E-05</v>
       </c>
       <c r="T12">
-        <v>0.2379913527895616</v>
+        <v>8.561399012083478E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.070090666666666</v>
+      </c>
+      <c r="H13">
+        <v>12.210272</v>
+      </c>
+      <c r="I13">
+        <v>0.4832920822450598</v>
+      </c>
+      <c r="J13">
+        <v>0.4832920822450598</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.267480666666666</v>
+      </c>
+      <c r="N13">
+        <v>27.802442</v>
+      </c>
+      <c r="O13">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="P13">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="Q13">
+        <v>37.71948656491377</v>
+      </c>
+      <c r="R13">
+        <v>339.475379084224</v>
+      </c>
+      <c r="S13">
+        <v>0.1587910603551089</v>
+      </c>
+      <c r="T13">
+        <v>0.1587910603551089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.013544</v>
+      </c>
+      <c r="H14">
+        <v>0.040632</v>
+      </c>
+      <c r="I14">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J14">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.166976333333333</v>
+      </c>
+      <c r="N14">
+        <v>18.500929</v>
+      </c>
+      <c r="O14">
+        <v>0.2186386623748516</v>
+      </c>
+      <c r="P14">
+        <v>0.2186386623748516</v>
+      </c>
+      <c r="Q14">
+        <v>0.08352552745866668</v>
+      </c>
+      <c r="R14">
+        <v>0.751729747128</v>
+      </c>
+      <c r="S14">
+        <v>0.000351624804040112</v>
+      </c>
+      <c r="T14">
+        <v>0.0003516248040401119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.013544</v>
+      </c>
+      <c r="H15">
+        <v>0.040632</v>
+      </c>
+      <c r="I15">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J15">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.76679433333333</v>
+      </c>
+      <c r="N15">
+        <v>38.300383</v>
+      </c>
+      <c r="O15">
+        <v>0.4526229200471234</v>
+      </c>
+      <c r="P15">
+        <v>0.4526229200471233</v>
+      </c>
+      <c r="Q15">
+        <v>0.1729134624506667</v>
+      </c>
+      <c r="R15">
+        <v>1.556221162056</v>
+      </c>
+      <c r="S15">
+        <v>0.0007279291038323663</v>
+      </c>
+      <c r="T15">
+        <v>0.0007279291038323661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.013544</v>
+      </c>
+      <c r="H16">
+        <v>0.040632</v>
+      </c>
+      <c r="I16">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J16">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.004996666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.01499</v>
+      </c>
+      <c r="O16">
+        <v>0.0001771475123762178</v>
+      </c>
+      <c r="P16">
+        <v>0.0001771475123762177</v>
+      </c>
+      <c r="Q16">
+        <v>6.767485333333333E-05</v>
+      </c>
+      <c r="R16">
+        <v>0.00060907368</v>
+      </c>
+      <c r="S16">
+        <v>2.848968185630721E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.84896818563072E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.013544</v>
+      </c>
+      <c r="H17">
+        <v>0.040632</v>
+      </c>
+      <c r="I17">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J17">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.267480666666666</v>
+      </c>
+      <c r="N17">
+        <v>27.802442</v>
+      </c>
+      <c r="O17">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="P17">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="Q17">
+        <v>0.1255187581493333</v>
+      </c>
+      <c r="R17">
+        <v>1.129668823344</v>
+      </c>
+      <c r="S17">
+        <v>0.0005284074232211031</v>
+      </c>
+      <c r="T17">
+        <v>0.000528407423221103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H18">
+        <v>11.487692</v>
+      </c>
+      <c r="I18">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J18">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.166976333333333</v>
+      </c>
+      <c r="N18">
+        <v>18.500929</v>
+      </c>
+      <c r="O18">
+        <v>0.2186386623748516</v>
+      </c>
+      <c r="P18">
+        <v>0.2186386623748516</v>
+      </c>
+      <c r="Q18">
+        <v>23.61477489620755</v>
+      </c>
+      <c r="R18">
+        <v>212.532974065868</v>
+      </c>
+      <c r="S18">
+        <v>0.0994132075303495</v>
+      </c>
+      <c r="T18">
+        <v>0.0994132075303495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H19">
+        <v>11.487692</v>
+      </c>
+      <c r="I19">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J19">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.76679433333333</v>
+      </c>
+      <c r="N19">
+        <v>38.300383</v>
+      </c>
+      <c r="O19">
+        <v>0.4526229200471234</v>
+      </c>
+      <c r="P19">
+        <v>0.4526229200471233</v>
+      </c>
+      <c r="Q19">
+        <v>48.88700037622621</v>
+      </c>
+      <c r="R19">
+        <v>439.9830033860359</v>
+      </c>
+      <c r="S19">
+        <v>0.2058039314496515</v>
+      </c>
+      <c r="T19">
+        <v>0.2058039314496515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.524757</v>
-      </c>
-      <c r="H13">
-        <v>10.574271</v>
-      </c>
-      <c r="I13">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="J13">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.038607666666667</v>
-      </c>
-      <c r="N13">
-        <v>18.115823</v>
-      </c>
-      <c r="O13">
-        <v>0.3873210386565396</v>
-      </c>
-      <c r="P13">
-        <v>0.3873210386565396</v>
-      </c>
-      <c r="Q13">
-        <v>21.284624643337</v>
-      </c>
-      <c r="R13">
-        <v>191.561621790033</v>
-      </c>
-      <c r="S13">
-        <v>0.2108110022173517</v>
-      </c>
-      <c r="T13">
-        <v>0.2108110022173517</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H20">
+        <v>11.487692</v>
+      </c>
+      <c r="I20">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J20">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.004996666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.01499</v>
+      </c>
+      <c r="O20">
+        <v>0.0001771475123762178</v>
+      </c>
+      <c r="P20">
+        <v>0.0001771475123762177</v>
+      </c>
+      <c r="Q20">
+        <v>0.01913338923111111</v>
+      </c>
+      <c r="R20">
+        <v>0.17220050308</v>
+      </c>
+      <c r="S20">
+        <v>8.054752174228327E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.054752174228326E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H21">
+        <v>11.487692</v>
+      </c>
+      <c r="I21">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J21">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.267480666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.802442</v>
+      </c>
+      <c r="O21">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="P21">
+        <v>0.3285612700656488</v>
+      </c>
+      <c r="Q21">
+        <v>35.48732117154044</v>
+      </c>
+      <c r="R21">
+        <v>319.385890543864</v>
+      </c>
+      <c r="S21">
+        <v>0.1493941161763555</v>
+      </c>
+      <c r="T21">
+        <v>0.1493941161763555</v>
       </c>
     </row>
   </sheetData>
